--- a/xlsx/patch_test.xlsx
+++ b/xlsx/patch_test.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\plate\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F638A9CC-158C-4C7F-85EE-967212B6C7C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B74B6EE-5D2E-4464-A597-7534864BAD51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24315" windowHeight="8445" xr2:uid="{4F245C4B-3961-4F79-956E-D79FCA66D419}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24315" windowHeight="8445" activeTab="1" xr2:uid="{4F245C4B-3961-4F79-956E-D79FCA66D419}"/>
   </bookViews>
   <sheets>
-    <sheet name="3次" sheetId="1" r:id="rId1"/>
-    <sheet name="4次" sheetId="2" r:id="rId2"/>
+    <sheet name="h=1" sheetId="1" r:id="rId1"/>
+    <sheet name="h=0.1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,19 +40,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>h=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h=0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h=0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w h=1</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ѳ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,15 +101,18 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>h=1</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w          2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,25 +134,6 @@
         <charset val="134"/>
       </rPr>
       <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>h=1</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,11 +201,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765AF3AE-3A75-4EB2-A83A-9377FC9BF7B6}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,34 +537,34 @@
     <col min="2" max="2" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
@@ -571,126 +574,127 @@
       <c r="L1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="B2">
-        <v>0.9030899869919435</v>
+        <v>0.90308998699194354</v>
       </c>
       <c r="C2">
-        <v>0.23500510000609695</v>
+        <v>5.5767504777216523E-4</v>
       </c>
       <c r="D2">
-        <v>-0.6289227127049793</v>
+        <v>-3.2536187868465944</v>
       </c>
       <c r="F2">
-        <v>0.9030899869919435</v>
+        <v>0.90308998699194354</v>
       </c>
       <c r="G2">
-        <v>0.2373387333367427</v>
+        <v>1.2221415464958576E-3</v>
       </c>
       <c r="H2">
-        <v>-0.6246313797695892</v>
+        <v>-2.9128784918822523</v>
       </c>
       <c r="J2">
-        <v>0.9030899869919435</v>
+        <v>0.90308998699194354</v>
       </c>
       <c r="K2">
-        <v>0.2331202025397765</v>
+        <v>2.2474113935721726E-3</v>
       </c>
       <c r="L2">
-        <v>-0.6324200882496638</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>-2.6483174217487884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="B3">
         <v>1.2041199826559248</v>
       </c>
       <c r="C3">
-        <v>0.24499926430362906</v>
+        <v>1.2144922902798417E-4</v>
       </c>
       <c r="D3">
-        <v>-0.6108352197552797</v>
+        <v>-3.9156052377954906</v>
       </c>
       <c r="F3">
         <v>1.2041199826559248</v>
       </c>
       <c r="G3">
-        <v>0.2480804985204208</v>
+        <v>2.65740961257767E-4</v>
       </c>
       <c r="H3">
-        <v>-0.6054073740504369</v>
+        <v>-3.5755414983667868</v>
       </c>
       <c r="J3">
         <v>1.2041199826559248</v>
       </c>
       <c r="K3">
-        <v>0.2440031216403638</v>
+        <v>4.9154483669217399E-4</v>
       </c>
       <c r="L3">
-        <v>-0.6126046175034331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>-3.3084368614740058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="B4">
         <v>1.505149978319906</v>
       </c>
       <c r="C4">
-        <v>0.24719519410757412</v>
+        <v>2.8435043177101358E-5</v>
       </c>
       <c r="D4">
-        <v>-0.6069599769199941</v>
+        <v>-4.546146107958231</v>
       </c>
       <c r="F4">
         <v>1.505149978319906</v>
       </c>
       <c r="G4">
-        <v>0.2503999216710982</v>
+        <v>6.2200662600245566E-5</v>
       </c>
       <c r="H4">
-        <v>-0.6013658113155023</v>
+        <v>-4.2062049889088975</v>
       </c>
       <c r="J4">
         <v>1.505149978319906</v>
       </c>
       <c r="K4">
-        <v>0.2492581183360066</v>
+        <v>1.152532033650845E-4</v>
       </c>
       <c r="L4">
-        <v>-0.6033506878162567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>-3.9383469949235996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="B5">
-        <v>1.806179973983887</v>
+        <v>1.8061799739838871</v>
       </c>
       <c r="C5">
-        <v>0.24719519410757412</v>
+        <v>6.8848769188931584E-6</v>
       </c>
       <c r="D5">
-        <v>-0.6069599769199941</v>
+        <v>-5.1621038192303432</v>
       </c>
       <c r="F5">
-        <v>1.806179973983887</v>
+        <v>1.8061799739838871</v>
       </c>
       <c r="G5">
-        <v>0.2503999216710982</v>
+        <v>1.505952109219432E-5</v>
       </c>
       <c r="H5">
-        <v>-0.6013658113155023</v>
+        <v>-4.8221888389138314</v>
       </c>
       <c r="J5">
-        <v>1.806179973983887</v>
+        <v>1.8061799739838871</v>
       </c>
       <c r="K5">
-        <v>0.2492581183360066</v>
+        <v>2.7916087658418429E-5</v>
       </c>
       <c r="L5">
-        <v>-0.6033506878162567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>-4.5541454466297031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -701,8 +705,8 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
+      <c r="E6" t="s" s="2">
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
@@ -713,8 +717,8 @@
       <c r="H6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
-        <v>5</v>
+      <c r="I6" t="s" s="2">
+        <v>6</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
@@ -725,126 +729,127 @@
       <c r="L6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="B7">
         <v>0.90308998699194354</v>
       </c>
       <c r="C7">
-        <v>1.7330435020623369E-2</v>
+        <v>5.5767504777236049E-4</v>
       </c>
       <c r="D7">
-        <v>-1.7611905356885618</v>
+        <v>-3.2536187868464421</v>
       </c>
       <c r="F7">
         <v>0.90308998699194354</v>
       </c>
       <c r="G7">
-        <v>0.24260149933993433</v>
+        <v>1.2221535892508017E-3</v>
       </c>
       <c r="H7">
-        <v>-0.61510651940906735</v>
+        <v>-2.9128742124464813</v>
       </c>
       <c r="J7">
-        <v>0.9030899869919435</v>
+        <v>0.90308998699194354</v>
       </c>
       <c r="K7">
-        <v>0.30514134753317773</v>
+        <v>2.7373719591751787E-3</v>
       </c>
       <c r="L7">
-        <v>-0.5154989402145861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>-2.5626661858410231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="B8">
         <v>1.2041199826559248</v>
       </c>
       <c r="C8">
-        <v>1.905988556107463E-2</v>
+        <v>1.2144922902801988E-4</v>
       </c>
       <c r="D8">
-        <v>-1.7198797112707778</v>
+        <v>-3.9156052377953632</v>
       </c>
       <c r="F8">
         <v>1.2041199826559248</v>
       </c>
       <c r="G8">
-        <v>0.26009237290734522</v>
+        <v>2.6574109795686365E-4</v>
       </c>
       <c r="H8">
-        <v>-0.58487238310908629</v>
+        <v>-3.5755412749625823</v>
       </c>
       <c r="J8">
         <v>1.2041199826559248</v>
       </c>
       <c r="K8">
-        <v>0.3494460703427365</v>
+        <v>6.2019291132345061E-4</v>
       </c>
       <c r="L8">
-        <v>-0.45661983897341935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>-3.2074732019663208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="B9">
         <v>1.505149978319906</v>
       </c>
       <c r="C9">
-        <v>1.9453206248683106E-2</v>
+        <v>2.8435043177110675E-5</v>
       </c>
       <c r="D9">
-        <v>-1.7110088086645923</v>
+        <v>-4.5461461079580889</v>
       </c>
       <c r="F9">
         <v>1.505149978319906</v>
       </c>
       <c r="G9">
-        <v>0.26374413676087832</v>
+        <v>6.2200664421729218E-5</v>
       </c>
       <c r="H9">
-        <v>-0.57881718629406265</v>
+        <v>-4.2062049761910218</v>
       </c>
       <c r="J9">
         <v>1.505149978319906</v>
       </c>
       <c r="K9">
-        <v>0.37075216541913225</v>
+        <v>1.4668736088243285E-4</v>
       </c>
       <c r="L9">
-        <v>-0.43091630374709539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>-3.8336073049398744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="B10">
         <v>1.8061799739838871</v>
       </c>
       <c r="C10">
-        <v>1.9453206248683106E-2</v>
+        <v>6.8848769188946365E-6</v>
       </c>
       <c r="D10">
-        <v>-1.7110088086645923</v>
+        <v>-5.16210381923025</v>
       </c>
       <c r="F10">
         <v>1.8061799739838871</v>
       </c>
       <c r="G10">
-        <v>0.26374413676087832</v>
+        <v>1.5059521118545139E-5</v>
       </c>
       <c r="H10">
-        <v>-0.57881718629406265</v>
+        <v>-4.8221888381539122</v>
       </c>
       <c r="J10">
         <v>1.8061799739838871</v>
       </c>
       <c r="K10">
-        <v>0.37075216541913225</v>
+        <v>3.5606203022208146E-5</v>
       </c>
       <c r="L10">
-        <v>-0.43091630374709539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>-4.4484743361944137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -855,8 +860,8 @@
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>4</v>
+      <c r="E11" t="s" s="2">
+        <v>5</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -867,8 +872,8 @@
       <c r="H11" t="s">
         <v>2</v>
       </c>
-      <c r="I11" t="s">
-        <v>5</v>
+      <c r="I11" t="s" s="2">
+        <v>6</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
@@ -879,121 +884,122 @@
       <c r="L11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="B12">
         <v>0.90308998699194354</v>
       </c>
       <c r="C12">
-        <v>1.7817417827442818E-2</v>
+        <v>5.5767504777235572E-4</v>
       </c>
       <c r="D12">
-        <v>-1.7491552354590536</v>
+        <v>-3.2536187868464461</v>
       </c>
       <c r="F12">
-        <v>0.90308998699194354</v>
+        <v>-0.90308998699194354</v>
       </c>
       <c r="G12">
-        <v>0.28506522945076124</v>
+        <v>1.2221516600200021E-3</v>
       </c>
       <c r="H12">
-        <v>-0.54505575209977741</v>
+        <v>-2.912874898002666</v>
       </c>
       <c r="J12">
         <v>0.90308998699194354</v>
       </c>
       <c r="K12">
-        <v>0.34490897374485624</v>
+        <v>2.7361102233526167E-3</v>
       </c>
       <c r="L12">
-        <v>-0.4622955061336998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>-2.5628664111808677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="B13">
         <v>1.2041199826559248</v>
       </c>
       <c r="C13">
-        <v>1.9740659729858306E-2</v>
+        <v>1.2144922902802327E-4</v>
       </c>
       <c r="D13">
-        <v>-1.7046383373680398</v>
+        <v>-3.9156052377953507</v>
       </c>
       <c r="F13">
-        <v>1.2041199826559248</v>
+        <v>-1.2041199826559248</v>
       </c>
       <c r="G13">
-        <v>0.30765970647130408</v>
+        <v>2.6574108935803215E-4</v>
       </c>
       <c r="H13">
-        <v>-0.51192937864054622</v>
+        <v>-3.5755412890154523</v>
       </c>
       <c r="J13">
-        <v>1.2041199826559248</v>
+        <v>-1.2041199826559248</v>
       </c>
       <c r="K13">
-        <v>0.43270468219553826</v>
+        <v>6.1916383917408357E-4</v>
       </c>
       <c r="L13">
-        <v>-0.36380840537746323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>-3.2081944155450257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="B14">
         <v>1.505149978319906</v>
       </c>
       <c r="C14">
-        <v>2.0182564389097563E-2</v>
+        <v>2.8435043177110201E-5</v>
       </c>
       <c r="D14">
-        <v>-1.695023653298396</v>
+        <v>-4.546146107958096</v>
       </c>
       <c r="F14">
-        <v>1.505149978319906</v>
+        <v>-1.505149978319906</v>
       </c>
       <c r="G14">
-        <v>0.31288380177477754</v>
+        <v>6.220066438295293E-5</v>
       </c>
       <c r="H14">
-        <v>-0.50461692001752034</v>
+        <v>-4.2062049764617644</v>
       </c>
       <c r="J14">
-        <v>1.505149978319906</v>
+        <v>-1.505149978319906</v>
       </c>
       <c r="K14">
-        <v>0.51713338715473067</v>
+        <v>1.4641846722373905E-4</v>
       </c>
       <c r="L14">
-        <v>-0.28639742241167387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>-3.8344041438543712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="B15">
         <v>1.8061799739838871</v>
       </c>
       <c r="C15">
-        <v>2.0182564389097563E-2</v>
+        <v>6.8848769188946263E-6</v>
       </c>
       <c r="D15">
-        <v>-1.695023653298396</v>
+        <v>-5.16210381923025</v>
       </c>
       <c r="F15">
-        <v>1.8061799739838871</v>
+        <v>-1.8061799739838871</v>
       </c>
       <c r="G15">
-        <v>0.31288380177477754</v>
+        <v>1.5059521118367452E-5</v>
       </c>
       <c r="H15">
-        <v>-0.50461692001752034</v>
+        <v>-4.822188838159037</v>
       </c>
       <c r="J15">
-        <v>1.8061799739838871</v>
+        <v>-1.8061799739838871</v>
       </c>
       <c r="K15">
-        <v>0.51713338715473067</v>
+        <v>3.554001358372229E-5</v>
       </c>
       <c r="L15">
-        <v>-0.28639742241167387</v>
+        <v>-4.4492824105393129</v>
       </c>
     </row>
   </sheetData>
@@ -1005,17 +1011,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB6CFE3-1763-4203-A1B7-14765228D342}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1026,8 +1032,8 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="E1" t="s" s="2">
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1038,8 +1044,8 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
+      <c r="I1" t="s" s="2">
+        <v>6</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -1052,124 +1058,52 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2">
-        <v>0.90308998699194354</v>
-      </c>
-      <c r="C2">
-        <v>8.5519218585476175E-2</v>
-      </c>
-      <c r="D2">
-        <v>-1.0679362760589393</v>
-      </c>
-      <c r="F2">
-        <v>0.90308998699194354</v>
-      </c>
-      <c r="G2">
-        <v>0.49645458026195416</v>
-      </c>
-      <c r="H2">
-        <v>-0.30412047817343885</v>
-      </c>
       <c r="J2">
-        <v>0.90308998699194354</v>
+        <v>-0.9030899869919435</v>
       </c>
       <c r="K2">
-        <v>0.51487820171730037</v>
+        <v>0.00752655681193851</v>
       </c>
       <c r="L2">
-        <v>-0.28829549441142727</v>
+        <v>-2.1234036558796623</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3">
-        <v>1.2041199826559248</v>
-      </c>
-      <c r="C3">
-        <v>9.2355432902045967E-2</v>
-      </c>
-      <c r="D3">
-        <v>-1.0345375516587312</v>
-      </c>
-      <c r="F3">
-        <v>1.2041199826559248</v>
-      </c>
-      <c r="G3">
-        <v>0.52184830140966876</v>
-      </c>
-      <c r="H3">
-        <v>-0.28245572580142164</v>
-      </c>
       <c r="J3">
-        <v>1.2041199826559248</v>
+        <v>-1.2041199826559248</v>
       </c>
       <c r="K3">
-        <v>0.54242742892102214</v>
+        <v>0.007728454575340841</v>
       </c>
       <c r="L3">
-        <v>-0.26565835762208334</v>
+        <v>-2.1119073413342724</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4">
-        <v>1.505149978319906</v>
-      </c>
-      <c r="C4">
-        <v>9.3860293500972136E-2</v>
-      </c>
-      <c r="D4">
-        <v>-1.0275180920833222</v>
-      </c>
-      <c r="F4">
-        <v>1.505149978319906</v>
-      </c>
-      <c r="G4">
-        <v>0.52736429370176829</v>
-      </c>
-      <c r="H4">
-        <v>-0.2778892783598918</v>
-      </c>
       <c r="J4">
-        <v>1.505149978319906</v>
+        <v>-1.505149978319906</v>
       </c>
       <c r="K4">
-        <v>0.55627198785691279</v>
+        <v>0.011105213717292369</v>
       </c>
       <c r="L4">
-        <v>-0.25471280924032058</v>
+        <v>-1.9544730791373313</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5">
-        <v>1.8061799739838871</v>
-      </c>
-      <c r="C5">
-        <v>9.3860293500972136E-2</v>
-      </c>
-      <c r="D5">
-        <v>-1.0275180920833222</v>
-      </c>
-      <c r="F5">
-        <v>1.8061799739838871</v>
-      </c>
-      <c r="G5">
-        <v>0.52736429370176829</v>
-      </c>
-      <c r="H5">
-        <v>-0.2778892783598918</v>
-      </c>
       <c r="J5">
-        <v>1.8061799739838871</v>
+        <v>-1.806179973983887</v>
       </c>
       <c r="K5">
-        <v>0.55627198785691279</v>
+        <v>0.03623503309393504</v>
       </c>
       <c r="L5">
-        <v>-0.25471280924032058</v>
+        <v>-1.4408713376986266</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -1180,8 +1114,8 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
+      <c r="E6" t="s" s="2">
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
@@ -1192,8 +1126,8 @@
       <c r="H6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
-        <v>5</v>
+      <c r="I6" t="s" s="2">
+        <v>6</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
@@ -1203,122 +1137,6 @@
       </c>
       <c r="L6" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7">
-        <v>0.9030899869919435</v>
-      </c>
-      <c r="C7">
-        <v>0.0769560249468829</v>
-      </c>
-      <c r="D7">
-        <v>-1.1137573732495984</v>
-      </c>
-      <c r="F7">
-        <v>0.9030899869919435</v>
-      </c>
-      <c r="G7">
-        <v>0.9031985740082213</v>
-      </c>
-      <c r="H7">
-        <v>-0.04421675675719129</v>
-      </c>
-      <c r="J7">
-        <v>0.9030899869919435</v>
-      </c>
-      <c r="K7">
-        <v>1.146723229283163</v>
-      </c>
-      <c r="L7">
-        <v>0.059458610142316196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8">
-        <v>1.2041199826559248</v>
-      </c>
-      <c r="C8">
-        <v>0.08480055593720556</v>
-      </c>
-      <c r="D8">
-        <v>-1.0716013005773752</v>
-      </c>
-      <c r="F8">
-        <v>1.2041199826559248</v>
-      </c>
-      <c r="G8">
-        <v>0.9769721072684957</v>
-      </c>
-      <c r="H8">
-        <v>-0.01011783529074532</v>
-      </c>
-      <c r="J8">
-        <v>1.2041199826559248</v>
-      </c>
-      <c r="K8">
-        <v>1.3369285741231403</v>
-      </c>
-      <c r="L8">
-        <v>0.12610820554710472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9">
-        <v>1.505149978319906</v>
-      </c>
-      <c r="C9">
-        <v>0.08691343387782181</v>
-      </c>
-      <c r="D9">
-        <v>-1.0609130911221532</v>
-      </c>
-      <c r="F9">
-        <v>1.505149978319906</v>
-      </c>
-      <c r="G9">
-        <v>0.9923755842251356</v>
-      </c>
-      <c r="H9">
-        <v>-0.0033239293723561856</v>
-      </c>
-      <c r="J9">
-        <v>1.505149978319906</v>
-      </c>
-      <c r="K9">
-        <v>1.4291417010001903</v>
-      </c>
-      <c r="L9">
-        <v>0.1550752917101332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10">
-        <v>1.806179973983887</v>
-      </c>
-      <c r="C10">
-        <v>0.08691343387782181</v>
-      </c>
-      <c r="D10">
-        <v>-1.0609130911221532</v>
-      </c>
-      <c r="F10">
-        <v>1.806179973983887</v>
-      </c>
-      <c r="G10">
-        <v>0.9923755842251356</v>
-      </c>
-      <c r="H10">
-        <v>-0.0033239293723561856</v>
-      </c>
-      <c r="J10">
-        <v>1.806179973983887</v>
-      </c>
-      <c r="K10">
-        <v>1.4291417010001903</v>
-      </c>
-      <c r="L10">
-        <v>0.1550752917101332</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1334,8 +1152,8 @@
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>4</v>
+      <c r="E11" t="s" s="2">
+        <v>5</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -1346,8 +1164,8 @@
       <c r="H11" t="s">
         <v>2</v>
       </c>
-      <c r="I11" t="s">
-        <v>5</v>
+      <c r="I11" t="s" s="2">
+        <v>6</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
@@ -1357,122 +1175,6 @@
       </c>
       <c r="L11" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12">
-        <v>0.9030899869919435</v>
-      </c>
-      <c r="C12">
-        <v>0.05993225463156346</v>
-      </c>
-      <c r="D12">
-        <v>-1.2223393839816663</v>
-      </c>
-      <c r="F12">
-        <v>0.9030899869919435</v>
-      </c>
-      <c r="G12">
-        <v>1.0244297464165588</v>
-      </c>
-      <c r="H12">
-        <v>0.010482180609556423</v>
-      </c>
-      <c r="J12">
-        <v>0.9030899869919435</v>
-      </c>
-      <c r="K12">
-        <v>1.2446469808811262</v>
-      </c>
-      <c r="L12">
-        <v>0.09504618998956027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13">
-        <v>1.2041199826559248</v>
-      </c>
-      <c r="C13">
-        <v>0.06925031944146384</v>
-      </c>
-      <c r="D13">
-        <v>-1.159578218922791</v>
-      </c>
-      <c r="F13">
-        <v>1.2041199826559248</v>
-      </c>
-      <c r="G13">
-        <v>1.1130273744628765</v>
-      </c>
-      <c r="H13">
-        <v>0.04650584576505307</v>
-      </c>
-      <c r="J13">
-        <v>1.2041199826559248</v>
-      </c>
-      <c r="K13">
-        <v>1.6301243823440486</v>
-      </c>
-      <c r="L13">
-        <v>0.2122207433639222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14">
-        <v>1.505149978319906</v>
-      </c>
-      <c r="C14">
-        <v>0.0717628400922028</v>
-      </c>
-      <c r="D14">
-        <v>-1.1441003819488562</v>
-      </c>
-      <c r="F14">
-        <v>1.505149978319906</v>
-      </c>
-      <c r="G14">
-        <v>1.1347139725118995</v>
-      </c>
-      <c r="H14">
-        <v>0.05488640266171007</v>
-      </c>
-      <c r="J14">
-        <v>1.505149978319906</v>
-      </c>
-      <c r="K14">
-        <v>1.999826562308289</v>
-      </c>
-      <c r="L14">
-        <v>0.3009923325146731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15">
-        <v>1.806179973983887</v>
-      </c>
-      <c r="C15">
-        <v>0.0717628400922028</v>
-      </c>
-      <c r="D15">
-        <v>-1.1441003819488562</v>
-      </c>
-      <c r="F15">
-        <v>1.806179973983887</v>
-      </c>
-      <c r="G15">
-        <v>1.1347139725118995</v>
-      </c>
-      <c r="H15">
-        <v>0.05488640266171007</v>
-      </c>
-      <c r="J15">
-        <v>1.806179973983887</v>
-      </c>
-      <c r="K15">
-        <v>1.999826562308289</v>
-      </c>
-      <c r="L15">
-        <v>0.3009923325146731</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/patch_test.xlsx
+++ b/xlsx/patch_test.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\plate\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B74B6EE-5D2E-4464-A597-7534864BAD51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48BFDF0-E301-4231-84D3-33D39E8F1679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24315" windowHeight="8445" activeTab="1" xr2:uid="{4F245C4B-3961-4F79-956E-D79FCA66D419}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24315" windowHeight="8445" activeTab="6" xr2:uid="{4F245C4B-3961-4F79-956E-D79FCA66D419}"/>
   </bookViews>
   <sheets>
     <sheet name="h=1" sheetId="1" r:id="rId1"/>
     <sheet name="h=0.1" sheetId="2" r:id="rId2"/>
+    <sheet name="q=0" sheetId="3" r:id="rId3"/>
+    <sheet name="mix" sheetId="4" r:id="rId4"/>
+    <sheet name="quad" sheetId="5" r:id="rId5"/>
+    <sheet name="mix quad" sheetId="6" r:id="rId6"/>
+    <sheet name="缩减积分" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>log10(ndiv)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +140,22 @@
       </rPr>
       <t>2</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h=0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h=0.001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +549,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1011,15 +1032,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB6CFE3-1763-4203-A1B7-14765228D342}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1057,51 +1078,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15">
       <c r="J2">
-        <v>-0.9030899869919435</v>
+        <v>-0.90308998699194354</v>
       </c>
       <c r="K2">
-        <v>0.00752655681193851</v>
+        <v>7.5265568119385097E-3</v>
       </c>
       <c r="L2">
         <v>-2.1234036558796623</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:15">
       <c r="J3">
         <v>-1.2041199826559248</v>
       </c>
       <c r="K3">
-        <v>0.007728454575340841</v>
+        <v>7.728454575340841E-3</v>
       </c>
       <c r="L3">
         <v>-2.1119073413342724</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:15">
       <c r="J4">
         <v>-1.505149978319906</v>
       </c>
       <c r="K4">
-        <v>0.011105213717292369</v>
+        <v>1.1105213717292369E-2</v>
       </c>
       <c r="L4">
         <v>-1.9544730791373313</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:15">
       <c r="J5">
-        <v>-1.806179973983887</v>
+        <v>-1.8061799739838871</v>
       </c>
       <c r="K5">
-        <v>0.03623503309393504</v>
+        <v>3.623503309393504E-2</v>
       </c>
       <c r="L5">
         <v>-1.4408713376986266</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:15">
       <c r="A6" t="s" s="1">
         <v>4</v>
       </c>
@@ -1139,7 +1160,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="7" spans="1:15">
+      <c r="J7">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="K7">
+        <v>4.8025286208330881E-2</v>
+      </c>
+      <c r="L7">
+        <v>-1.3185300382657816</v>
+      </c>
+      <c r="M7">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="N7">
+        <v>2.3614380962362232E-2</v>
+      </c>
+      <c r="O7">
+        <v>-1.6268234347222144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="J8">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="K8">
+        <v>2.7736395129449243E-2</v>
+      </c>
+      <c r="L8">
+        <v>-1.5569499843990666</v>
+      </c>
+      <c r="M8">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="N8">
+        <v>2.6328159411468127E-2</v>
+      </c>
+      <c r="O8">
+        <v>-1.5795795011439713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="J9">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="K9">
+        <v>9.2984438408735511E-4</v>
+      </c>
+      <c r="L9">
+        <v>-3.0315897275612214</v>
+      </c>
+      <c r="M9">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="N9">
+        <v>3.9264014246771034E-2</v>
+      </c>
+      <c r="O9">
+        <v>-1.406005301371261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="J10">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="K10">
+        <v>1.9011151545272184E-4</v>
+      </c>
+      <c r="L10">
+        <v>-3.7209915762113206</v>
+      </c>
+      <c r="M10">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="N10">
+        <v>0.1708329578231963</v>
+      </c>
+      <c r="O10">
+        <v>-0.76742833961914658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s" s="1">
         <v>8</v>
       </c>
@@ -1182,4 +1283,1659 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33242CB6-EE41-48A5-904B-99D9E0E47ECB}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C2">
+        <v>3.4199768403029413E-4</v>
+      </c>
+      <c r="D2">
+        <v>-3.4659768349271078</v>
+      </c>
+      <c r="F2">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="G2">
+        <v>1.46453029482486E-3</v>
+      </c>
+      <c r="H2">
+        <v>-2.8343016402069052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C3">
+        <v>7.447949480345025E-5</v>
+      </c>
+      <c r="D3">
+        <v>-4.1279632778486519</v>
+      </c>
+      <c r="F3">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G3">
+        <v>3.4182868265757903E-4</v>
+      </c>
+      <c r="H3">
+        <v>-3.4661914986741467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C4">
+        <v>1.743796703640526E-5</v>
+      </c>
+      <c r="D4">
+        <v>-4.7585041476336567</v>
+      </c>
+      <c r="F4">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G4">
+        <v>8.1548385039220233E-5</v>
+      </c>
+      <c r="H4">
+        <v>-4.0885846351816451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C5">
+        <v>4.2221935806237712E-6</v>
+      </c>
+      <c r="D5">
+        <v>-5.374461858884966</v>
+      </c>
+      <c r="F5">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="G5">
+        <v>1.9827526235583309E-5</v>
+      </c>
+      <c r="H5">
+        <v>-4.7027314667958375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C7">
+        <v>2.2946252905519886</v>
+      </c>
+      <c r="D7">
+        <v>0.36071177591597509</v>
+      </c>
+      <c r="F7">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="G7">
+        <v>1.2564483016998735</v>
+      </c>
+      <c r="H7">
+        <v>9.914462365014072E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C8">
+        <v>8.2910314576008559E-2</v>
+      </c>
+      <c r="D8">
+        <v>-1.0813914370638531</v>
+      </c>
+      <c r="F8">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G8">
+        <v>8.5089585656036054E-2</v>
+      </c>
+      <c r="H8">
+        <v>-1.0701235911362039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C9">
+        <v>0.43902363363710484</v>
+      </c>
+      <c r="D9">
+        <v>-0.35751210007243234</v>
+      </c>
+      <c r="F9">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G9">
+        <v>0.10572919509697794</v>
+      </c>
+      <c r="H9">
+        <v>-0.97580507400964089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C10">
+        <v>4.1676702224547812E-3</v>
+      </c>
+      <c r="D10">
+        <v>-2.380106653008518</v>
+      </c>
+      <c r="F10">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="G10">
+        <v>8.4757578884327531E-3</v>
+      </c>
+      <c r="H10">
+        <v>-2.0718214574850076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C12">
+        <v>0.27222677277705382</v>
+      </c>
+      <c r="D12">
+        <v>-0.56506916532825546</v>
+      </c>
+      <c r="F12">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="G12">
+        <v>0.17897851863127354</v>
+      </c>
+      <c r="H12">
+        <v>-0.74719909080634417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C13">
+        <v>0.54993773085937225</v>
+      </c>
+      <c r="D13">
+        <v>-0.25968648264239202</v>
+      </c>
+      <c r="F13">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G13">
+        <v>0.69738358269017553</v>
+      </c>
+      <c r="H13">
+        <v>-0.15652828069245966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C14">
+        <v>2.2124368813685957</v>
+      </c>
+      <c r="D14">
+        <v>0.34487088955547207</v>
+      </c>
+      <c r="F14">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G14">
+        <v>3.08179096664617</v>
+      </c>
+      <c r="H14">
+        <v>0.48880317782469823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C15">
+        <v>56.589375493457105</v>
+      </c>
+      <c r="D15">
+        <v>1.7527349011938183</v>
+      </c>
+      <c r="F15">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="G15">
+        <v>43.15115315686085</v>
+      </c>
+      <c r="H15">
+        <v>1.6349924061455423</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE307043-7900-4F7B-9B27-86C8DDEA75EB}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C2">
+        <v>6.4889497403319764E-4</v>
+      </c>
+      <c r="D2">
+        <v>-3.1878255896231873</v>
+      </c>
+      <c r="F2">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="G2">
+        <v>1.1278606052203908E-3</v>
+      </c>
+      <c r="H2">
+        <v>-2.6083500000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C3">
+        <v>1.4131490545611405E-4</v>
+      </c>
+      <c r="D3">
+        <v>-3.8498120277060499</v>
+      </c>
+      <c r="F3">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G3">
+        <v>5.3711150841601301E-4</v>
+      </c>
+      <c r="H3">
+        <v>-3.2699355421171008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C4">
+        <v>3.3086216157773262E-5</v>
+      </c>
+      <c r="D4">
+        <v>-4.4803528972633089</v>
+      </c>
+      <c r="F4">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G4">
+        <v>1.2577715056106011E-4</v>
+      </c>
+      <c r="H4">
+        <v>-3.9003982482910895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C5">
+        <v>8.0110490621323459E-6</v>
+      </c>
+      <c r="D5">
+        <v>-5.096310608502157</v>
+      </c>
+      <c r="F5">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="G5">
+        <v>3.0454591212206568E-5</v>
+      </c>
+      <c r="H5">
+        <v>-4.5163472255985955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C7">
+        <v>1.0850915822376355E-3</v>
+      </c>
+      <c r="D7">
+        <v>-2.9645336056108982</v>
+      </c>
+      <c r="F7">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="G7">
+        <v>2.3530341745788847E-3</v>
+      </c>
+      <c r="H7">
+        <v>-2.6283717652492862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C8">
+        <v>2.3630883346507776E-4</v>
+      </c>
+      <c r="D8">
+        <v>-3.6265200436937604</v>
+      </c>
+      <c r="F8">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G8">
+        <v>5.1217878171060138E-4</v>
+      </c>
+      <c r="H8">
+        <v>-3.2905784172320476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C9">
+        <v>5.5327250290984364E-5</v>
+      </c>
+      <c r="D9">
+        <v>-4.2570609132509967</v>
+      </c>
+      <c r="F9">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G9">
+        <v>1.1990592283103617E-4</v>
+      </c>
+      <c r="H9">
+        <v>-3.9211593641129432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C10">
+        <v>1.3396192373295132E-5</v>
+      </c>
+      <c r="D10">
+        <v>-4.8730186244898404</v>
+      </c>
+      <c r="F10">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="G10">
+        <v>2.9031464293630066E-5</v>
+      </c>
+      <c r="H10">
+        <v>-4.5371310586014824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C12">
+        <v>1.0583773468753207E-3</v>
+      </c>
+      <c r="D12">
+        <v>-2.9753594642025765</v>
+      </c>
+      <c r="F12">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="G12">
+        <v>2.3163753024328824E-3</v>
+      </c>
+      <c r="H12">
+        <v>-2.6351910742317983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C13">
+        <v>2.30491066652839E-4</v>
+      </c>
+      <c r="D13">
+        <v>-3.6373459022854417</v>
+      </c>
+      <c r="F13">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G13">
+        <v>5.0416649831553251E-4</v>
+      </c>
+      <c r="H13">
+        <v>-3.2974260164146219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C14">
+        <v>5.3965130069612384E-5</v>
+      </c>
+      <c r="D14">
+        <v>-4.2678867718425515</v>
+      </c>
+      <c r="F14">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G14">
+        <v>1.180297934164117E-4</v>
+      </c>
+      <c r="H14">
+        <v>-3.9280083530062226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C15">
+        <v>1.3066386998465341E-5</v>
+      </c>
+      <c r="D15">
+        <v>-4.8838444830810737</v>
+      </c>
+      <c r="F15">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="G15">
+        <v>2.8577595024162291E-5</v>
+      </c>
+      <c r="H15">
+        <v>-4.5439743224898805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C17">
+        <v>1.0581166073163899E-3</v>
+      </c>
+      <c r="D17">
+        <v>-2.9754664692351267</v>
+      </c>
+      <c r="F17">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="G17">
+        <v>2.3160152793673724E-3</v>
+      </c>
+      <c r="H17">
+        <v>-2.6352585797792094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C18">
+        <v>2.3043428349578195E-4</v>
+      </c>
+      <c r="D18">
+        <v>-3.6374529070830373</v>
+      </c>
+      <c r="F18">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G18">
+        <v>5.0408786950475288E-4</v>
+      </c>
+      <c r="H18">
+        <v>-3.2974937534059992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C19">
+        <v>5.3951842069879292E-5</v>
+      </c>
+      <c r="D19">
+        <v>-4.2679937226747393</v>
+      </c>
+      <c r="F19">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G19">
+        <v>1.1801134587593546E-4</v>
+      </c>
+      <c r="H19">
+        <v>-3.9280762366393374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C20">
+        <v>1.3063188168127671E-5</v>
+      </c>
+      <c r="D20">
+        <v>-4.8839508173297004</v>
+      </c>
+      <c r="F20">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="G20">
+        <v>2.8573118709016479E-5</v>
+      </c>
+      <c r="H20">
+        <v>-4.5440423545001245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3B284B-3754-451B-8A6E-4A65F9422081}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C2">
+        <v>9.5337425948873063E-4</v>
+      </c>
+      <c r="D2">
+        <v>-3.0207365779312307</v>
+      </c>
+      <c r="F2">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="G2">
+        <v>5.5083345478804495E-3</v>
+      </c>
+      <c r="H2">
+        <v>-2.2589796908032458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C3">
+        <v>2.075945084927779E-4</v>
+      </c>
+      <c r="D3">
+        <v>-3.6827841390838301</v>
+      </c>
+      <c r="F3">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G3">
+        <v>1.2028100186548493E-3</v>
+      </c>
+      <c r="H3">
+        <v>-2.9198029631551612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C4">
+        <v>4.8602676576211898E-5</v>
+      </c>
+      <c r="D4">
+        <v>-4.3133398132424183</v>
+      </c>
+      <c r="F4">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G4">
+        <v>2.817871759547611E-4</v>
+      </c>
+      <c r="H4">
+        <v>-3.5500787753814249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C5">
+        <v>1.1767899501788764E-5</v>
+      </c>
+      <c r="D5">
+        <v>-4.9293010491524631</v>
+      </c>
+      <c r="F5">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="G5">
+        <v>6.8238916559257127E-5</v>
+      </c>
+      <c r="H5">
+        <v>-4.1659678771522488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C7">
+        <v>2.5008536618871952E-2</v>
+      </c>
+      <c r="D7">
+        <v>-1.601911720382365</v>
+      </c>
+      <c r="F7">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="G7">
+        <v>6.8086470906575658E-2</v>
+      </c>
+      <c r="H7">
+        <v>-1.1669391758160848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C8">
+        <v>3.0626557660968393E-2</v>
+      </c>
+      <c r="D8">
+        <v>-1.5139018139299403</v>
+      </c>
+      <c r="F8">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G8">
+        <v>8.3335053069755784E-3</v>
+      </c>
+      <c r="H8">
+        <v>-2.0791722836756388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C9">
+        <v>2.4680247439525339E-2</v>
+      </c>
+      <c r="D9">
+        <v>-1.6076504904620632</v>
+      </c>
+      <c r="F9">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G9">
+        <v>3.0342090331726895E-2</v>
+      </c>
+      <c r="H9">
+        <v>-1.5179545030396377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C10">
+        <v>9.4959911156986196E-2</v>
+      </c>
+      <c r="D10">
+        <v>-1.0224597003724278</v>
+      </c>
+      <c r="F10">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="G10">
+        <v>0.10084443023370311</v>
+      </c>
+      <c r="H10">
+        <v>-0.99634808342609904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C12">
+        <v>0.61061074907228263</v>
+      </c>
+      <c r="D12">
+        <v>-0.21423555473488715</v>
+      </c>
+      <c r="F12">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="G12">
+        <v>1.5784703889096396</v>
+      </c>
+      <c r="H12">
+        <v>0.19823643921919726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C13">
+        <v>1.966414511730288</v>
+      </c>
+      <c r="D13">
+        <v>0.29367507055719366</v>
+      </c>
+      <c r="F13">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G13">
+        <v>1.2743086133505377</v>
+      </c>
+      <c r="H13">
+        <v>0.10527461861488993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C14">
+        <v>1.0575177290069291</v>
+      </c>
+      <c r="D14">
+        <v>2.4287656941016211E-2</v>
+      </c>
+      <c r="F14">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G14">
+        <v>6.7433148604044133</v>
+      </c>
+      <c r="H14">
+        <v>0.82887343832764993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C15">
+        <v>2.4899866646109055</v>
+      </c>
+      <c r="D15">
+        <v>0.39619702119155714</v>
+      </c>
+      <c r="F15">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="G15">
+        <v>1.1832199417833957</v>
+      </c>
+      <c r="H15">
+        <v>7.3065480574286926E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BA8833-83CB-4BB4-A729-D075DAE18078}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C2">
+        <v>1.1278606052203908E-3</v>
+      </c>
+      <c r="D2">
+        <v>-2.94774457244884</v>
+      </c>
+      <c r="F2">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="G2">
+        <v>4.56254919332073E-3</v>
+      </c>
+      <c r="H2">
+        <v>-2.3407924399551807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C3">
+        <v>2.4561837702044537E-4</v>
+      </c>
+      <c r="D3">
+        <v>-3.6097391426611734</v>
+      </c>
+      <c r="F3">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G3">
+        <v>9.7647453106446526E-4</v>
+      </c>
+      <c r="H3">
+        <v>-3.0103390797313865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C4">
+        <v>5.7506808348558813E-5</v>
+      </c>
+      <c r="D4">
+        <v>-4.2402807352552285</v>
+      </c>
+      <c r="F4">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G4">
+        <v>2.2732951136865439E-4</v>
+      </c>
+      <c r="H4">
+        <v>-3.6433441815534615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C5">
+        <v>1.3923919125743948E-5</v>
+      </c>
+      <c r="D5">
+        <v>-4.8562385078917085</v>
+      </c>
+      <c r="F5">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="G5">
+        <v>5.4930927370339528E-5</v>
+      </c>
+      <c r="H5">
+        <v>-4.260183068948395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C7">
+        <v>1.1374139160344693E-3</v>
+      </c>
+      <c r="D7">
+        <v>-2.944081462544192</v>
+      </c>
+      <c r="F7">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="G7">
+        <v>6.4296174327474797E-3</v>
+      </c>
+      <c r="H7">
+        <v>-2.1918148671674671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C8">
+        <v>2.4620121699677204E-4</v>
+      </c>
+      <c r="D8">
+        <v>-3.6087098046391612</v>
+      </c>
+      <c r="F8">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G8">
+        <v>1.3593118921229525E-3</v>
+      </c>
+      <c r="H8">
+        <v>-2.8666808836008322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C9">
+        <v>5.7584693536544481E-5</v>
+      </c>
+      <c r="D9">
+        <v>-4.2396929401187746</v>
+      </c>
+      <c r="F9">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G9">
+        <v>3.1443016095002304E-4</v>
+      </c>
+      <c r="H9">
+        <v>-3.5024758019904167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C10">
+        <v>1.3941254501650578E-5</v>
+      </c>
+      <c r="D10">
+        <v>-4.8556981445571816</v>
+      </c>
+      <c r="F10">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="G10">
+        <v>7.5870055844246386E-5</v>
+      </c>
+      <c r="H10">
+        <v>-4.1199295962728364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C12">
+        <v>1.1531806318037852E-3</v>
+      </c>
+      <c r="D12">
+        <v>-2.9381026603970604</v>
+      </c>
+      <c r="F12">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="G12">
+        <v>6.7087660366426929E-3</v>
+      </c>
+      <c r="H12">
+        <v>-2.1733573535655966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C13">
+        <v>2.4980652849341536E-4</v>
+      </c>
+      <c r="D13">
+        <v>-3.6023962158753497</v>
+      </c>
+      <c r="F13">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G13">
+        <v>1.5413599760373342E-3</v>
+      </c>
+      <c r="H13">
+        <v>-2.8120959223785595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C14">
+        <v>5.8209504791287957E-5</v>
+      </c>
+      <c r="D14">
+        <v>-4.235006095395172</v>
+      </c>
+      <c r="F14">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G14">
+        <v>3.9386269189246403E-4</v>
+      </c>
+      <c r="H14">
+        <v>-3.4046551551964397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C15">
+        <v>1.4011046756083257E-5</v>
+      </c>
+      <c r="D15">
+        <v>-4.853529417647203</v>
+      </c>
+      <c r="F15">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="G15">
+        <v>1.1043250603447519E-4</v>
+      </c>
+      <c r="H15">
+        <v>-3.9569030723180054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C17">
+        <v>1.1535931191960689E-3</v>
+      </c>
+      <c r="D17">
+        <v>-2.9379473430408134</v>
+      </c>
+      <c r="F17">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="G17">
+        <v>6.7088647981313407E-3</v>
+      </c>
+      <c r="H17">
+        <v>-2.1733509602507004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C18">
+        <v>2.5091791796079936E-4</v>
+      </c>
+      <c r="D18">
+        <v>-3.6004683247609086</v>
+      </c>
+      <c r="F18">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G18">
+        <v>1.5414516282984115E-3</v>
+      </c>
+      <c r="H18">
+        <v>-2.8120700991519989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C19">
+        <v>5.8633874892104197E-5</v>
+      </c>
+      <c r="D19">
+        <v>-4.2318514039790918</v>
+      </c>
+      <c r="F19">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G19">
+        <v>3.9346745562462656E-4</v>
+      </c>
+      <c r="H19">
+        <v>-3.4050911830689392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C20">
+        <v>1.416213117443016E-5</v>
+      </c>
+      <c r="D20">
+        <v>-4.8488713873488836</v>
+      </c>
+      <c r="F20">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="G20">
+        <v>1.1073582496861138E-4</v>
+      </c>
+      <c r="H20">
+        <v>-3.9557118545578267</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231F4E9F-9600-4C8E-8273-5BF872211DF3}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>-0.9030899869919435</v>
+      </c>
+      <c r="C2">
+        <v>0.0011278351699660807</v>
+      </c>
+      <c r="D2">
+        <v>-2.9477543666690664</v>
+      </c>
+      <c r="F2">
+        <v>-0.9030899869919435</v>
+      </c>
+      <c r="G2">
+        <v>0.0060153922234114626</v>
+      </c>
+      <c r="H2">
+        <v>-2.2207360499683975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C3">
+        <v>0.0002456174370150248</v>
+      </c>
+      <c r="D3">
+        <v>-3.6097408047515804</v>
+      </c>
+      <c r="F3">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G3">
+        <v>0.001310423852331354</v>
+      </c>
+      <c r="H3">
+        <v>-2.8825882104847476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C4">
+        <v>5.750668400433345e-5</v>
+      </c>
+      <c r="D4">
+        <v>-4.240281674310462</v>
+      </c>
+      <c r="F4">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G4">
+        <v>0.0003068295535218123</v>
+      </c>
+      <c r="H4">
+        <v>-3.5131028118896146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5">
+        <v>-1.806179973983887</v>
+      </c>
+      <c r="C5">
+        <v>1.3923890986760395e-5</v>
+      </c>
+      <c r="D5">
+        <v>-4.856239385562537</v>
+      </c>
+      <c r="F5">
+        <v>-1.806179973983887</v>
+      </c>
+      <c r="G5">
+        <v>7.4293028485788e-5</v>
+      </c>
+      <c r="H5">
+        <v>-4.129051937682287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7">
+        <v>-0.9030899869919435</v>
+      </c>
+      <c r="C7">
+        <v>0.06177328908539353</v>
+      </c>
+      <c r="D7">
+        <v>-1.2091992742716926</v>
+      </c>
+      <c r="F7">
+        <v>-0.9030899869919435</v>
+      </c>
+      <c r="G7">
+        <v>0.1795237382166232</v>
+      </c>
+      <c r="H7">
+        <v>-0.7458781170307252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C8">
+        <v>0.041547475336304</v>
+      </c>
+      <c r="D8">
+        <v>-1.3814553613100602</v>
+      </c>
+      <c r="F8">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G8">
+        <v>0.013909300019742901</v>
+      </c>
+      <c r="H8">
+        <v>-1.8566947251633994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C9">
+        <v>0.02233749690988044</v>
+      </c>
+      <c r="D9">
+        <v>-1.6509654945656262</v>
+      </c>
+      <c r="F9">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G9">
+        <v>0.01016413342858352</v>
+      </c>
+      <c r="H9">
+        <v>-1.9929296424294998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10">
+        <v>-1.806179973983887</v>
+      </c>
+      <c r="C10">
+        <v>0.03822711457548367</v>
+      </c>
+      <c r="D10">
+        <v>-1.4176284817674691</v>
+      </c>
+      <c r="F10">
+        <v>-1.806179973983887</v>
+      </c>
+      <c r="G10">
+        <v>0.050704945221643066</v>
+      </c>
+      <c r="H10">
+        <v>-1.2949496821314195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12">
+        <v>-0.9030899869919435</v>
+      </c>
+      <c r="C12">
+        <v>22.725259504869562</v>
+      </c>
+      <c r="D12">
+        <v>1.356508851229072</v>
+      </c>
+      <c r="F12">
+        <v>-0.9030899869919435</v>
+      </c>
+      <c r="G12">
+        <v>10.370249264721854</v>
+      </c>
+      <c r="H12">
+        <v>1.0157891954432547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C13">
+        <v>3.3943218317318946</v>
+      </c>
+      <c r="D13">
+        <v>0.5307530174509963</v>
+      </c>
+      <c r="F13">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="G13">
+        <v>14.39313028158935</v>
+      </c>
+      <c r="H13">
+        <v>1.1581552564924924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C14">
+        <v>15.483123900959612</v>
+      </c>
+      <c r="D14">
+        <v>1.1898585891682723</v>
+      </c>
+      <c r="F14">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="G14">
+        <v>12.488066525234515</v>
+      </c>
+      <c r="H14">
+        <v>1.0964952035925821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15">
+        <v>-1.806179973983887</v>
+      </c>
+      <c r="C15">
+        <v>12.352601158890963</v>
+      </c>
+      <c r="D15">
+        <v>1.0917584191344762</v>
+      </c>
+      <c r="F15">
+        <v>-1.806179973983887</v>
+      </c>
+      <c r="G15">
+        <v>5.683346669377189</v>
+      </c>
+      <c r="H15">
+        <v>0.754604147687469</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>